--- a/server/exe1.xlsx
+++ b/server/exe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\tp_si\project\project-si\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B90676-E434-4279-BEE5-0CC4963371E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DB69B-83C6-4A71-922B-55A8536C7E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{9E8DD66C-66A2-4FAF-BDE8-9647EE6088AA}"/>
   </bookViews>
@@ -54,19 +54,19 @@
     <t>djoudi</t>
   </si>
   <si>
-    <t>telephoneClient</t>
-  </si>
-  <si>
-    <t>creditClient</t>
-  </si>
-  <si>
-    <t>prenomClient</t>
-  </si>
-  <si>
-    <t>adresseClient</t>
-  </si>
-  <si>
-    <t>nomClient</t>
+    <t>Nom_fournisseur</t>
+  </si>
+  <si>
+    <t>Prenom_fournisseur</t>
+  </si>
+  <si>
+    <t>adresse_fournisseur</t>
+  </si>
+  <si>
+    <t>telephone_fournisseur</t>
+  </si>
+  <si>
+    <t>solde_fournisseur</t>
   </si>
 </sst>
 </file>
@@ -439,26 +439,26 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -474,6 +474,9 @@
       <c r="D2">
         <v>23244</v>
       </c>
+      <c r="E2">
+        <v>234</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -488,6 +491,9 @@
       <c r="D3">
         <v>3232</v>
       </c>
+      <c r="E3">
+        <v>31231</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -501,6 +507,9 @@
       </c>
       <c r="D4">
         <v>3232</v>
+      </c>
+      <c r="E4">
+        <v>21312</v>
       </c>
     </row>
   </sheetData>

--- a/server/exe1.xlsx
+++ b/server/exe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\tp_si\project\project-si\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DB69B-83C6-4A71-922B-55A8536C7E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0FAF27-3029-4C96-A604-FCB5A276222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{9E8DD66C-66A2-4FAF-BDE8-9647EE6088AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nabil</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>solde_fournisseur</t>
+  </si>
+  <si>
+    <t>id_center</t>
   </si>
 </sst>
 </file>
@@ -436,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C048DE-CCB1-4032-A80D-C3F82C6A1ADD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -460,8 +463,11 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +484,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -495,7 +501,7 @@
         <v>31231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
